--- a/用例数据/深A/限售股转流通股/测试结果.xlsx
+++ b/用例数据/深A/限售股转流通股/测试结果.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2337" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2345" uniqueCount="356">
   <si>
     <t>EXCHID</t>
   </si>
@@ -1095,13 +1095,16 @@
   </si>
   <si>
     <t>000006908503</t>
+  </si>
+  <si>
+    <t>CCB1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1117,6 +1120,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1126,12 +1135,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1140,11 +1164,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4090,7 +4117,7 @@
   <dimension ref="A1:EI14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4219,7 +4246,7 @@
     <col min="136" max="137" width="2.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
@@ -4626,7 +4653,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>332</v>
       </c>
@@ -4645,6 +4672,9 @@
       <c r="F2" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="I2" s="2" t="s">
+        <v>355</v>
+      </c>
       <c r="J2" s="1" t="s">
         <v>91</v>
       </c>
@@ -4955,7 +4985,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>339</v>
       </c>
@@ -4974,6 +5004,9 @@
       <c r="F3" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="I3" s="2" t="s">
+        <v>355</v>
+      </c>
       <c r="J3" s="1" t="s">
         <v>91</v>
       </c>
@@ -5284,7 +5317,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>341</v>
       </c>
@@ -5303,6 +5336,9 @@
       <c r="F4" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="I4" s="2" t="s">
+        <v>355</v>
+      </c>
       <c r="J4" s="1" t="s">
         <v>91</v>
       </c>
@@ -5613,7 +5649,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>344</v>
       </c>
@@ -5632,6 +5668,9 @@
       <c r="F5" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="I5" s="2" t="s">
+        <v>355</v>
+      </c>
       <c r="J5" s="1" t="s">
         <v>91</v>
       </c>
@@ -5942,7 +5981,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>347</v>
       </c>
@@ -5961,6 +6000,9 @@
       <c r="F6" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="I6" s="2" t="s">
+        <v>355</v>
+      </c>
       <c r="J6" s="1" t="s">
         <v>91</v>
       </c>
@@ -6271,7 +6313,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>349</v>
       </c>
@@ -6290,6 +6332,9 @@
       <c r="F7" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="I7" s="2" t="s">
+        <v>355</v>
+      </c>
       <c r="J7" s="1" t="s">
         <v>91</v>
       </c>
@@ -6600,7 +6645,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>351</v>
       </c>
@@ -6619,6 +6664,9 @@
       <c r="F8" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="I8" s="2" t="s">
+        <v>355</v>
+      </c>
       <c r="J8" s="1" t="s">
         <v>91</v>
       </c>
@@ -6929,7 +6977,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>353</v>
       </c>
@@ -6947,6 +6995,9 @@
       </c>
       <c r="F9" s="1" t="s">
         <v>90</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>355</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>91</v>

--- a/用例数据/深A/限售股转流通股/测试结果.xlsx
+++ b/用例数据/深A/限售股转流通股/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="stklist" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2337" uniqueCount="355">
   <si>
     <t>EXCHID</t>
   </si>
@@ -773,9 +773,6 @@
     <t>0.0000</t>
   </si>
   <si>
-    <t>99999</t>
-  </si>
-  <si>
     <t>-1</t>
   </si>
   <si>
@@ -947,61 +944,7 @@
     <t>100.0000</t>
   </si>
   <si>
-    <t>30200229</t>
-  </si>
-  <si>
-    <t>20220321163924</t>
-  </si>
-  <si>
     <t>20220321000000</t>
-  </si>
-  <si>
-    <t>8316799.830</t>
-  </si>
-  <si>
-    <t>000006870185</t>
-  </si>
-  <si>
-    <t>30200230</t>
-  </si>
-  <si>
-    <t>000006870186</t>
-  </si>
-  <si>
-    <t>30200232</t>
-  </si>
-  <si>
-    <t>000006870188</t>
-  </si>
-  <si>
-    <t>30200234</t>
-  </si>
-  <si>
-    <t>000006870190</t>
-  </si>
-  <si>
-    <t>30200236</t>
-  </si>
-  <si>
-    <t>000006870192</t>
-  </si>
-  <si>
-    <t>30200238</t>
-  </si>
-  <si>
-    <t>000006870194</t>
-  </si>
-  <si>
-    <t>30200239</t>
-  </si>
-  <si>
-    <t>000006870195</t>
-  </si>
-  <si>
-    <t>30200240</t>
-  </si>
-  <si>
-    <t>000006870196</t>
   </si>
   <si>
     <t>CREDITSHAREGOINGQTY</t>
@@ -1085,20 +1028,73 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>005_004_043</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>005_003_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>30052786</t>
+  </si>
+  <si>
+    <t>20221011231453</t>
+  </si>
+  <si>
+    <t>20221011000000</t>
+  </si>
+  <si>
+    <t>1000778735.780</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>000006908496</t>
+  </si>
+  <si>
+    <t>30052787</t>
+  </si>
+  <si>
+    <t>000006908497</t>
+  </si>
+  <si>
+    <t>30052788</t>
   </si>
   <si>
     <t>005_003_015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000006908498</t>
+  </si>
+  <si>
+    <t>30052789</t>
   </si>
   <si>
     <t>005_004_015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000006908499</t>
+  </si>
+  <si>
+    <t>30052790</t>
+  </si>
+  <si>
+    <t>000006908500</t>
+  </si>
+  <si>
+    <t>30052791</t>
+  </si>
+  <si>
+    <t>000006908501</t>
+  </si>
+  <si>
+    <t>30052792</t>
+  </si>
+  <si>
+    <t>000006908502</t>
+  </si>
+  <si>
+    <t>30052793</t>
+  </si>
+  <si>
+    <t>000006908503</t>
   </si>
 </sst>
 </file>
@@ -1461,86 +1457,86 @@
       <selection activeCell="BW6" sqref="BW6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.625" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="15" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="15" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="13.875" bestFit="1" customWidth="1"/>
     <col min="46" max="47" width="15" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="22.625" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="15" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="58" max="59" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="17.25" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="15" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="19.375" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="26" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="84" max="86" width="2.5546875" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="84" max="86" width="2.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1791,7 +1787,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>90</v>
       </c>
@@ -1871,7 +1867,7 @@
         <v>248</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>94</v>
@@ -2051,7 +2047,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>90</v>
       </c>
@@ -2086,7 +2082,7 @@
         <v>95</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>96</v>
@@ -2131,7 +2127,7 @@
         <v>248</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>94</v>
@@ -2254,7 +2250,7 @@
         <v>95</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="BQ3" s="1" t="s">
         <v>96</v>
@@ -2311,7 +2307,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>90</v>
       </c>
@@ -2346,7 +2342,7 @@
         <v>95</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>96</v>
@@ -2391,7 +2387,7 @@
         <v>248</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>94</v>
@@ -2514,7 +2510,7 @@
         <v>95</v>
       </c>
       <c r="BP4" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="BQ4" s="1" t="s">
         <v>96</v>
@@ -2571,19 +2567,19 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2599,81 +2595,81 @@
       <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.625" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.5" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="15" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.5" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="15" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="13.875" bestFit="1" customWidth="1"/>
     <col min="41" max="42" width="15" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="22.625" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="15" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="53" max="54" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="55" max="56" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.375" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="15" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="19.375" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="26" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>121</v>
       </c>
@@ -2903,18 +2899,18 @@
         <v>82</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
     </row>
-    <row r="2" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>90</v>
@@ -2926,7 +2922,7 @@
         <v>91</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>83</v>
@@ -2935,7 +2931,7 @@
         <v>92</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>84</v>
@@ -2995,7 +2991,7 @@
         <v>96</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>94</v>
@@ -3151,9 +3147,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>90</v>
@@ -3174,7 +3170,7 @@
         <v>92</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>242</v>
@@ -3189,7 +3185,7 @@
         <v>95</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>96</v>
@@ -3228,13 +3224,13 @@
         <v>85</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="AA3" s="1" t="s">
         <v>96</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>94</v>
@@ -3339,7 +3335,7 @@
         <v>95</v>
       </c>
       <c r="BK3" s="1" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="BL3" s="1" t="s">
         <v>96</v>
@@ -3390,9 +3386,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>90</v>
@@ -3413,7 +3409,7 @@
         <v>92</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>88</v>
@@ -3428,7 +3424,7 @@
         <v>95</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>96</v>
@@ -3473,7 +3469,7 @@
         <v>96</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>94</v>
@@ -3578,7 +3574,7 @@
         <v>95</v>
       </c>
       <c r="BK4" s="1" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="BL4" s="1" t="s">
         <v>96</v>
@@ -3629,16 +3625,16 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3654,22 +3650,22 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3713,7 +3709,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>90</v>
       </c>
@@ -3757,7 +3753,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>90</v>
       </c>
@@ -3801,7 +3797,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>90</v>
       </c>
@@ -3845,13 +3841,13 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3867,24 +3863,24 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>121</v>
       </c>
@@ -3931,9 +3927,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>90</v>
@@ -3945,7 +3941,7 @@
         <v>91</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>92</v>
@@ -3978,9 +3974,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>90</v>
@@ -4025,9 +4021,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>90</v>
@@ -4072,16 +4068,16 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <autoFilter ref="A1:O1"/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4091,139 +4087,139 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EG14"/>
+  <dimension ref="A1:EI14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="16.125" bestFit="1" customWidth="1"/>
     <col min="35" max="36" width="15" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.75" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="15" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.75" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="15" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.75" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="15" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18.375" bestFit="1" customWidth="1"/>
     <col min="56" max="57" width="15" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="13.875" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="15" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="13.875" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="15" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="18.375" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="15" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="82" max="83" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="84" max="85" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="82" max="83" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="16.125" bestFit="1" customWidth="1"/>
     <col min="99" max="99" width="15" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="18.375" bestFit="1" customWidth="1"/>
     <col min="101" max="102" width="15" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="107" max="108" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="107" max="108" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="11.75" bestFit="1" customWidth="1"/>
     <col min="110" max="110" width="15" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="22.625" bestFit="1" customWidth="1"/>
     <col min="118" max="118" width="26" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="122" max="123" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="122" max="123" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="17.25" bestFit="1" customWidth="1"/>
     <col min="130" max="130" width="15" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="136" max="137" width="2.5546875" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="136" max="137" width="2.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:137" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
@@ -4630,21 +4626,21 @@
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:137" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>351</v>
+        <v>241</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>90</v>
@@ -4692,7 +4688,7 @@
         <v>95</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>96</v>
@@ -4701,7 +4697,7 @@
         <v>96</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>104</v>
@@ -4749,7 +4745,7 @@
         <v>245</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>85</v>
+        <v>336</v>
       </c>
       <c r="AR2" s="1" t="s">
         <v>91</v>
@@ -4773,7 +4769,7 @@
         <v>96</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>94</v>
@@ -4785,13 +4781,13 @@
         <v>90</v>
       </c>
       <c r="BF2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BH2" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="BI2" s="1" t="s">
         <v>95</v>
@@ -4806,10 +4802,10 @@
         <v>94</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BQ2" s="1" t="s">
         <v>94</v>
@@ -4821,10 +4817,10 @@
         <v>96</v>
       </c>
       <c r="BT2" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BV2" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BW2" s="1" t="s">
         <v>90</v>
@@ -4836,7 +4832,7 @@
         <v>90</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>94</v>
+        <v>337</v>
       </c>
       <c r="CA2" s="1" t="s">
         <v>96</v>
@@ -4854,46 +4850,46 @@
         <v>94</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="CJ2" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="CL2" s="1" t="s">
         <v>101</v>
       </c>
       <c r="CR2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CT2" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="CT2" s="1" t="s">
+      <c r="CV2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DA2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="DC2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DD2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DE2" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="CV2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="DA2" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="DC2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="DD2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="DE2" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="DF2" s="1" t="s">
         <v>101</v>
       </c>
       <c r="DG2" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="DJ2" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="DK2" s="1" t="s">
         <v>96</v>
@@ -4955,22 +4951,25 @@
       <c r="EG2" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="EI2" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="3" spans="1:137" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>352</v>
+        <v>256</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>90</v>
@@ -5018,7 +5017,7 @@
         <v>95</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>96</v>
@@ -5027,7 +5026,7 @@
         <v>96</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>108</v>
@@ -5075,7 +5074,7 @@
         <v>245</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>85</v>
+        <v>336</v>
       </c>
       <c r="AR3" s="1" t="s">
         <v>91</v>
@@ -5099,7 +5098,7 @@
         <v>96</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>94</v>
@@ -5111,13 +5110,13 @@
         <v>90</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BG3" s="1" t="s">
         <v>94</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BI3" s="1" t="s">
         <v>95</v>
@@ -5132,10 +5131,10 @@
         <v>94</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BQ3" s="1" t="s">
         <v>94</v>
@@ -5147,10 +5146,10 @@
         <v>96</v>
       </c>
       <c r="BT3" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BV3" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BW3" s="1" t="s">
         <v>90</v>
@@ -5162,7 +5161,7 @@
         <v>90</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>94</v>
+        <v>337</v>
       </c>
       <c r="CA3" s="1" t="s">
         <v>96</v>
@@ -5180,46 +5179,46 @@
         <v>94</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="CJ3" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="CK3" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="CL3" s="1" t="s">
         <v>101</v>
       </c>
       <c r="CR3" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CT3" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="CT3" s="1" t="s">
+      <c r="CV3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DA3" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="DC3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DD3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DE3" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="CV3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="DA3" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="DC3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="DD3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="DE3" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="DF3" s="1" t="s">
         <v>101</v>
       </c>
       <c r="DG3" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="DJ3" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="DK3" s="1" t="s">
         <v>96</v>
@@ -5281,22 +5280,25 @@
       <c r="EG3" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="EI3" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="4" spans="1:137" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>90</v>
@@ -5335,7 +5337,7 @@
         <v>100</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>110</v>
@@ -5344,7 +5346,7 @@
         <v>95</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>96</v>
@@ -5353,7 +5355,7 @@
         <v>96</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>108</v>
@@ -5401,7 +5403,7 @@
         <v>245</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>85</v>
+        <v>336</v>
       </c>
       <c r="AR4" s="1" t="s">
         <v>91</v>
@@ -5425,7 +5427,7 @@
         <v>96</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="BA4" s="1" t="s">
         <v>94</v>
@@ -5437,13 +5439,13 @@
         <v>90</v>
       </c>
       <c r="BF4" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BG4" s="1" t="s">
         <v>94</v>
       </c>
       <c r="BH4" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BI4" s="1" t="s">
         <v>95</v>
@@ -5458,10 +5460,10 @@
         <v>94</v>
       </c>
       <c r="BN4" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BP4" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BQ4" s="1" t="s">
         <v>94</v>
@@ -5473,10 +5475,10 @@
         <v>96</v>
       </c>
       <c r="BT4" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BV4" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BW4" s="1" t="s">
         <v>90</v>
@@ -5488,7 +5490,7 @@
         <v>90</v>
       </c>
       <c r="BZ4" s="1" t="s">
-        <v>94</v>
+        <v>337</v>
       </c>
       <c r="CA4" s="1" t="s">
         <v>96</v>
@@ -5506,46 +5508,46 @@
         <v>94</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="CJ4" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="CK4" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="CL4" s="1" t="s">
         <v>101</v>
       </c>
       <c r="CR4" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CT4" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="CT4" s="1" t="s">
+      <c r="CV4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DA4" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="DC4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DD4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DE4" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="CV4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="DA4" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="DC4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="DD4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="DE4" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="DF4" s="1" t="s">
         <v>101</v>
       </c>
       <c r="DG4" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="DJ4" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="DK4" s="1" t="s">
         <v>96</v>
@@ -5607,22 +5609,25 @@
       <c r="EG4" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="EI4" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="5" spans="1:137" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>90</v>
@@ -5661,7 +5666,7 @@
         <v>100</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>110</v>
@@ -5670,7 +5675,7 @@
         <v>95</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>96</v>
@@ -5679,7 +5684,7 @@
         <v>96</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>108</v>
@@ -5727,7 +5732,7 @@
         <v>245</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>85</v>
+        <v>336</v>
       </c>
       <c r="AR5" s="1" t="s">
         <v>91</v>
@@ -5751,7 +5756,7 @@
         <v>96</v>
       </c>
       <c r="AZ5" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="BA5" s="1" t="s">
         <v>94</v>
@@ -5763,13 +5768,13 @@
         <v>90</v>
       </c>
       <c r="BF5" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BG5" s="1" t="s">
         <v>94</v>
       </c>
       <c r="BH5" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BI5" s="1" t="s">
         <v>95</v>
@@ -5784,10 +5789,10 @@
         <v>94</v>
       </c>
       <c r="BN5" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BP5" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BQ5" s="1" t="s">
         <v>94</v>
@@ -5799,10 +5804,10 @@
         <v>96</v>
       </c>
       <c r="BT5" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BV5" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BW5" s="1" t="s">
         <v>90</v>
@@ -5814,7 +5819,7 @@
         <v>90</v>
       </c>
       <c r="BZ5" s="1" t="s">
-        <v>94</v>
+        <v>337</v>
       </c>
       <c r="CA5" s="1" t="s">
         <v>96</v>
@@ -5832,46 +5837,46 @@
         <v>94</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>317</v>
+        <v>346</v>
       </c>
       <c r="CJ5" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="CK5" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="CL5" s="1" t="s">
         <v>101</v>
       </c>
       <c r="CR5" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CT5" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="CT5" s="1" t="s">
+      <c r="CV5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DA5" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="DC5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DD5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DE5" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="CV5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="DA5" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="DC5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="DD5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="DE5" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="DF5" s="1" t="s">
         <v>101</v>
       </c>
       <c r="DG5" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="DJ5" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="DK5" s="1" t="s">
         <v>96</v>
@@ -5933,10 +5938,13 @@
       <c r="EG5" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="EI5" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="6" spans="1:137" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>318</v>
+        <v>347</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>241</v>
@@ -5945,10 +5953,10 @@
         <v>99</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>90</v>
@@ -5996,7 +6004,7 @@
         <v>95</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>96</v>
@@ -6005,7 +6013,7 @@
         <v>96</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="AB6" s="1" t="s">
         <v>94</v>
@@ -6053,7 +6061,7 @@
         <v>245</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>85</v>
+        <v>336</v>
       </c>
       <c r="AR6" s="1" t="s">
         <v>91</v>
@@ -6077,7 +6085,7 @@
         <v>96</v>
       </c>
       <c r="AZ6" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="BA6" s="1" t="s">
         <v>94</v>
@@ -6089,13 +6097,13 @@
         <v>90</v>
       </c>
       <c r="BF6" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="BG6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BH6" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="BG6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="BH6" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="BI6" s="1" t="s">
         <v>95</v>
@@ -6110,10 +6118,10 @@
         <v>94</v>
       </c>
       <c r="BN6" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BP6" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BQ6" s="1" t="s">
         <v>94</v>
@@ -6125,10 +6133,10 @@
         <v>96</v>
       </c>
       <c r="BT6" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BV6" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BW6" s="1" t="s">
         <v>90</v>
@@ -6140,7 +6148,7 @@
         <v>90</v>
       </c>
       <c r="BZ6" s="1" t="s">
-        <v>94</v>
+        <v>337</v>
       </c>
       <c r="CA6" s="1" t="s">
         <v>96</v>
@@ -6158,46 +6166,46 @@
         <v>94</v>
       </c>
       <c r="CH6" s="1" t="s">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="CJ6" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="CK6" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="CL6" s="1" t="s">
         <v>101</v>
       </c>
       <c r="CR6" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CT6" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="CT6" s="1" t="s">
+      <c r="CV6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DA6" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="DC6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DD6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DE6" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="CV6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="DA6" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="DC6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="DD6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="DE6" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="DF6" s="1" t="s">
         <v>101</v>
       </c>
       <c r="DG6" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="DJ6" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="DK6" s="1" t="s">
         <v>96</v>
@@ -6259,22 +6267,25 @@
       <c r="EG6" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="EI6" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="7" spans="1:137" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>320</v>
+        <v>349</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>90</v>
@@ -6322,7 +6333,7 @@
         <v>95</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>96</v>
@@ -6331,7 +6342,7 @@
         <v>96</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="AB7" s="1" t="s">
         <v>107</v>
@@ -6379,7 +6390,7 @@
         <v>245</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>85</v>
+        <v>336</v>
       </c>
       <c r="AR7" s="1" t="s">
         <v>91</v>
@@ -6403,7 +6414,7 @@
         <v>96</v>
       </c>
       <c r="AZ7" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="BA7" s="1" t="s">
         <v>94</v>
@@ -6415,13 +6426,13 @@
         <v>90</v>
       </c>
       <c r="BF7" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BG7" s="1" t="s">
         <v>94</v>
       </c>
       <c r="BH7" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BI7" s="1" t="s">
         <v>95</v>
@@ -6436,10 +6447,10 @@
         <v>94</v>
       </c>
       <c r="BN7" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BP7" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BQ7" s="1" t="s">
         <v>94</v>
@@ -6451,10 +6462,10 @@
         <v>96</v>
       </c>
       <c r="BT7" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BV7" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BW7" s="1" t="s">
         <v>90</v>
@@ -6466,7 +6477,7 @@
         <v>90</v>
       </c>
       <c r="BZ7" s="1" t="s">
-        <v>94</v>
+        <v>337</v>
       </c>
       <c r="CA7" s="1" t="s">
         <v>96</v>
@@ -6484,46 +6495,46 @@
         <v>94</v>
       </c>
       <c r="CH7" s="1" t="s">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="CJ7" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="CK7" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="CL7" s="1" t="s">
         <v>101</v>
       </c>
       <c r="CR7" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CT7" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="CT7" s="1" t="s">
+      <c r="CV7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DA7" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="DC7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DD7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DE7" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="CV7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="DA7" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="DC7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="DD7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="DE7" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="DF7" s="1" t="s">
         <v>101</v>
       </c>
       <c r="DG7" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="DJ7" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="DK7" s="1" t="s">
         <v>96</v>
@@ -6585,10 +6596,13 @@
       <c r="EG7" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="EI7" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="8" spans="1:137" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>241</v>
@@ -6597,10 +6611,10 @@
         <v>99</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>90</v>
@@ -6648,7 +6662,7 @@
         <v>95</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>96</v>
@@ -6657,7 +6671,7 @@
         <v>96</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="AB8" s="1" t="s">
         <v>94</v>
@@ -6705,7 +6719,7 @@
         <v>245</v>
       </c>
       <c r="AQ8" s="1" t="s">
-        <v>85</v>
+        <v>336</v>
       </c>
       <c r="AR8" s="1" t="s">
         <v>91</v>
@@ -6729,7 +6743,7 @@
         <v>96</v>
       </c>
       <c r="AZ8" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="BA8" s="1" t="s">
         <v>94</v>
@@ -6741,13 +6755,13 @@
         <v>90</v>
       </c>
       <c r="BF8" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="BG8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BH8" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="BG8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="BH8" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="BI8" s="1" t="s">
         <v>95</v>
@@ -6762,10 +6776,10 @@
         <v>94</v>
       </c>
       <c r="BN8" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BP8" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BQ8" s="1" t="s">
         <v>94</v>
@@ -6777,10 +6791,10 @@
         <v>96</v>
       </c>
       <c r="BT8" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BV8" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BW8" s="1" t="s">
         <v>90</v>
@@ -6792,7 +6806,7 @@
         <v>90</v>
       </c>
       <c r="BZ8" s="1" t="s">
-        <v>94</v>
+        <v>337</v>
       </c>
       <c r="CA8" s="1" t="s">
         <v>96</v>
@@ -6810,46 +6824,46 @@
         <v>94</v>
       </c>
       <c r="CH8" s="1" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="CJ8" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="CK8" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="CL8" s="1" t="s">
         <v>101</v>
       </c>
       <c r="CR8" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CT8" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="CT8" s="1" t="s">
+      <c r="CV8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DA8" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="DC8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DD8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DE8" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="CV8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="DA8" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="DC8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="DD8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="DE8" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="DF8" s="1" t="s">
         <v>101</v>
       </c>
       <c r="DG8" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="DJ8" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="DK8" s="1" t="s">
         <v>96</v>
@@ -6911,22 +6925,25 @@
       <c r="EG8" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="EI8" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="9" spans="1:137" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>90</v>
@@ -6974,7 +6991,7 @@
         <v>95</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>96</v>
@@ -6983,7 +7000,7 @@
         <v>96</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="AB9" s="1" t="s">
         <v>97</v>
@@ -7031,7 +7048,7 @@
         <v>245</v>
       </c>
       <c r="AQ9" s="1" t="s">
-        <v>85</v>
+        <v>336</v>
       </c>
       <c r="AR9" s="1" t="s">
         <v>91</v>
@@ -7055,7 +7072,7 @@
         <v>96</v>
       </c>
       <c r="AZ9" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="BA9" s="1" t="s">
         <v>94</v>
@@ -7067,13 +7084,13 @@
         <v>90</v>
       </c>
       <c r="BF9" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BG9" s="1" t="s">
         <v>94</v>
       </c>
       <c r="BH9" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BI9" s="1" t="s">
         <v>95</v>
@@ -7088,10 +7105,10 @@
         <v>94</v>
       </c>
       <c r="BN9" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BP9" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BQ9" s="1" t="s">
         <v>94</v>
@@ -7103,10 +7120,10 @@
         <v>96</v>
       </c>
       <c r="BT9" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BV9" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BW9" s="1" t="s">
         <v>90</v>
@@ -7118,7 +7135,7 @@
         <v>90</v>
       </c>
       <c r="BZ9" s="1" t="s">
-        <v>94</v>
+        <v>337</v>
       </c>
       <c r="CA9" s="1" t="s">
         <v>96</v>
@@ -7136,46 +7153,46 @@
         <v>94</v>
       </c>
       <c r="CH9" s="1" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="CJ9" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="CK9" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="CL9" s="1" t="s">
         <v>101</v>
       </c>
       <c r="CR9" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CT9" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="CT9" s="1" t="s">
+      <c r="CV9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DA9" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="DC9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DD9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DE9" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="CV9" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="DA9" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="DC9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="DD9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="DE9" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="DF9" s="1" t="s">
         <v>101</v>
       </c>
       <c r="DG9" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="DJ9" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="DK9" s="1" t="s">
         <v>96</v>
@@ -7237,12 +7254,15 @@
       <c r="EG9" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="EI9" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="10" spans="1:137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <autoFilter ref="A1:EG1"/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7255,87 +7275,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CE29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="36" max="39" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="52" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="36" max="39" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.5" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="15" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="13.875" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="15" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="67" max="68" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="67" max="68" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="17.25" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="15" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="19.375" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="26" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>120</v>
       </c>
@@ -7361,34 +7381,34 @@
         <v>129</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>131</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>167</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>118</v>
@@ -7403,34 +7423,34 @@
         <v>5</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>130</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>137</v>
@@ -7448,19 +7468,19 @@
         <v>139</v>
       </c>
       <c r="AL1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>238</v>
       </c>
       <c r="AO1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>149</v>
@@ -7472,22 +7492,22 @@
         <v>196</v>
       </c>
       <c r="AT1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="AU1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="AZ1" s="1" t="s">
         <v>69</v>
@@ -7502,7 +7522,7 @@
         <v>112</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BE1" s="1" t="s">
         <v>236</v>
@@ -7511,34 +7531,34 @@
         <v>237</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BH1" s="1" t="s">
         <v>175</v>
       </c>
       <c r="BI1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="BL1" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="BQ1" s="1" t="s">
         <v>68</v>
@@ -7586,12 +7606,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>90</v>
@@ -7612,7 +7632,7 @@
         <v>100</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>95</v>
@@ -7624,16 +7644,16 @@
         <v>94</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>90</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>94</v>
@@ -7648,13 +7668,13 @@
         <v>94</v>
       </c>
       <c r="AB2" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="AG2" s="1" t="s">
         <v>248</v>
@@ -7684,25 +7704,25 @@
         <v>96</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AT2" s="1" t="s">
         <v>100</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AY2" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>96</v>
@@ -7714,16 +7734,16 @@
         <v>94</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BI2" s="1" t="s">
         <v>94</v>
       </c>
       <c r="BK2" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="BN2" s="1" t="s">
         <v>94</v>
@@ -7777,18 +7797,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>103</v>
@@ -7815,16 +7835,16 @@
         <v>94</v>
       </c>
       <c r="O3" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>90</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>94</v>
@@ -7839,13 +7859,13 @@
         <v>94</v>
       </c>
       <c r="AB3" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD3" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="AG3" s="1" t="s">
         <v>248</v>
@@ -7875,25 +7895,25 @@
         <v>96</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AT3" s="1" t="s">
         <v>100</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AW3" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AY3" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>96</v>
@@ -7905,16 +7925,16 @@
         <v>94</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BI3" s="1" t="s">
         <v>94</v>
       </c>
       <c r="BK3" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="BN3" s="1" t="s">
         <v>94</v>
@@ -7968,12 +7988,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>90</v>
@@ -7985,7 +8005,7 @@
         <v>103</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>96</v>
@@ -7994,7 +8014,7 @@
         <v>100</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>95</v>
@@ -8006,16 +8026,16 @@
         <v>94</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>90</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>94</v>
@@ -8030,13 +8050,13 @@
         <v>94</v>
       </c>
       <c r="AB4" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD4" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="AG4" s="1" t="s">
         <v>248</v>
@@ -8066,25 +8086,25 @@
         <v>96</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AT4" s="1" t="s">
         <v>100</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AW4" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AY4" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BA4" s="1" t="s">
         <v>96</v>
@@ -8096,19 +8116,19 @@
         <v>94</v>
       </c>
       <c r="BG4" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BH4" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BI4" s="1" t="s">
         <v>94</v>
       </c>
       <c r="BJ4" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="BK4" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="BN4" s="1" t="s">
         <v>94</v>
@@ -8162,12 +8182,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>90</v>
@@ -8179,7 +8199,7 @@
         <v>103</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>96</v>
@@ -8200,16 +8220,16 @@
         <v>94</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>90</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>94</v>
@@ -8224,13 +8244,13 @@
         <v>94</v>
       </c>
       <c r="AB5" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD5" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="AG5" s="1" t="s">
         <v>248</v>
@@ -8260,25 +8280,25 @@
         <v>96</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AT5" s="1" t="s">
         <v>100</v>
       </c>
       <c r="AU5" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AW5" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AY5" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AZ5" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BA5" s="1" t="s">
         <v>96</v>
@@ -8290,19 +8310,19 @@
         <v>94</v>
       </c>
       <c r="BG5" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BH5" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BI5" s="1" t="s">
         <v>94</v>
       </c>
       <c r="BJ5" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="BK5" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="BN5" s="1" t="s">
         <v>94</v>
@@ -8311,12 +8331,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>90</v>
@@ -8328,7 +8348,7 @@
         <v>103</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>96</v>
@@ -8349,13 +8369,13 @@
         <v>94</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>94</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>94</v>
@@ -8370,13 +8390,13 @@
         <v>94</v>
       </c>
       <c r="AB6" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD6" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="AG6" s="1" t="s">
         <v>248</v>
@@ -8406,7 +8426,7 @@
         <v>96</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AT6" s="1" t="s">
         <v>100</v>
@@ -8415,13 +8435,13 @@
         <v>94</v>
       </c>
       <c r="AX6" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AY6" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AZ6" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BA6" s="1" t="s">
         <v>96</v>
@@ -8433,16 +8453,16 @@
         <v>94</v>
       </c>
       <c r="BG6" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BH6" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BI6" s="1" t="s">
         <v>94</v>
       </c>
       <c r="BK6" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="BN6" s="1" t="s">
         <v>94</v>
@@ -8451,12 +8471,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>90</v>
@@ -8468,7 +8488,7 @@
         <v>103</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>96</v>
@@ -8489,13 +8509,13 @@
         <v>94</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>94</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>94</v>
@@ -8510,13 +8530,13 @@
         <v>94</v>
       </c>
       <c r="AB7" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD7" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="AG7" s="1" t="s">
         <v>248</v>
@@ -8546,7 +8566,7 @@
         <v>96</v>
       </c>
       <c r="AS7" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AT7" s="1" t="s">
         <v>100</v>
@@ -8555,13 +8575,13 @@
         <v>94</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AY7" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AZ7" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BA7" s="1" t="s">
         <v>96</v>
@@ -8573,16 +8593,16 @@
         <v>94</v>
       </c>
       <c r="BG7" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BH7" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BI7" s="1" t="s">
         <v>94</v>
       </c>
       <c r="BK7" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="BN7" s="1" t="s">
         <v>94</v>
@@ -8591,12 +8611,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>90</v>
@@ -8617,7 +8637,7 @@
         <v>100</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>95</v>
@@ -8629,16 +8649,16 @@
         <v>94</v>
       </c>
       <c r="O8" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q8" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>90</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>94</v>
@@ -8653,13 +8673,13 @@
         <v>94</v>
       </c>
       <c r="AB8" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD8" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="AG8" s="1" t="s">
         <v>248</v>
@@ -8689,25 +8709,25 @@
         <v>96</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AT8" s="1" t="s">
         <v>100</v>
       </c>
       <c r="AU8" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AW8" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AX8" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AY8" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AZ8" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BA8" s="1" t="s">
         <v>96</v>
@@ -8719,16 +8739,16 @@
         <v>94</v>
       </c>
       <c r="BG8" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BH8" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BI8" s="1" t="s">
         <v>94</v>
       </c>
       <c r="BK8" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="BN8" s="1" t="s">
         <v>94</v>
@@ -8737,12 +8757,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>90</v>
@@ -8775,16 +8795,16 @@
         <v>94</v>
       </c>
       <c r="O9" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q9" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>90</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>94</v>
@@ -8799,13 +8819,13 @@
         <v>94</v>
       </c>
       <c r="AB9" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD9" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD9" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="AG9" s="1" t="s">
         <v>248</v>
@@ -8835,25 +8855,25 @@
         <v>96</v>
       </c>
       <c r="AS9" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AT9" s="1" t="s">
         <v>100</v>
       </c>
       <c r="AU9" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AW9" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AX9" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AY9" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AZ9" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BA9" s="1" t="s">
         <v>96</v>
@@ -8865,16 +8885,16 @@
         <v>94</v>
       </c>
       <c r="BG9" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BH9" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BI9" s="1" t="s">
         <v>94</v>
       </c>
       <c r="BK9" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="BN9" s="1" t="s">
         <v>94</v>
@@ -8883,12 +8903,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>90</v>
@@ -8921,13 +8941,13 @@
         <v>94</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>90</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>94</v>
@@ -8942,13 +8962,13 @@
         <v>94</v>
       </c>
       <c r="AB10" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD10" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="AC10" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD10" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="AG10" s="1" t="s">
         <v>248</v>
@@ -8978,7 +8998,7 @@
         <v>96</v>
       </c>
       <c r="AS10" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AT10" s="1" t="s">
         <v>100</v>
@@ -8987,13 +9007,13 @@
         <v>94</v>
       </c>
       <c r="AX10" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AY10" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AZ10" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BA10" s="1" t="s">
         <v>96</v>
@@ -9005,16 +9025,16 @@
         <v>94</v>
       </c>
       <c r="BG10" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BH10" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BI10" s="1" t="s">
         <v>94</v>
       </c>
       <c r="BK10" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="BN10" s="1" t="s">
         <v>94</v>
@@ -9023,12 +9043,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>90</v>
@@ -9061,13 +9081,13 @@
         <v>94</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>90</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>94</v>
@@ -9082,13 +9102,13 @@
         <v>94</v>
       </c>
       <c r="AB11" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD11" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="AC11" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD11" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="AG11" s="1" t="s">
         <v>248</v>
@@ -9118,7 +9138,7 @@
         <v>96</v>
       </c>
       <c r="AS11" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AT11" s="1" t="s">
         <v>100</v>
@@ -9127,13 +9147,13 @@
         <v>94</v>
       </c>
       <c r="AX11" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AY11" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AZ11" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BA11" s="1" t="s">
         <v>96</v>
@@ -9145,16 +9165,16 @@
         <v>94</v>
       </c>
       <c r="BG11" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BH11" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BI11" s="1" t="s">
         <v>94</v>
       </c>
       <c r="BK11" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="BN11" s="1" t="s">
         <v>94</v>
@@ -9163,24 +9183,24 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <autoFilter ref="A1:CE1"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/用例数据/深A/限售股转流通股/测试结果.xlsx
+++ b/用例数据/深A/限售股转流通股/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="stklist" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2345" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2345" uniqueCount="357">
   <si>
     <t>EXCHID</t>
   </si>
@@ -1040,9 +1040,6 @@
     <t>1000778735.780</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -1098,6 +1095,14 @@
   </si>
   <si>
     <t>CCB1</t>
+  </si>
+  <si>
+    <t>A0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1484,86 +1489,86 @@
       <selection activeCell="BW6" sqref="BW6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="15" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="15" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="46" max="47" width="15" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="15" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="58" max="59" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="27.125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="15" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="26" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="84" max="86" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="84" max="86" width="2.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1814,7 +1819,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>90</v>
       </c>
@@ -2074,7 +2079,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>90</v>
       </c>
@@ -2334,7 +2339,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>90</v>
       </c>
@@ -2594,19 +2599,19 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2622,81 +2627,81 @@
       <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="15" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="15" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="41" max="42" width="15" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="15" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="53" max="54" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="55" max="56" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="27.125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="15" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="26" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>121</v>
       </c>
@@ -2935,7 +2940,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="2" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>306</v>
       </c>
@@ -3174,7 +3179,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>306</v>
       </c>
@@ -3413,7 +3418,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>306</v>
       </c>
@@ -3652,16 +3657,16 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3677,22 +3682,22 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3736,7 +3741,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>90</v>
       </c>
@@ -3780,7 +3785,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>90</v>
       </c>
@@ -3824,7 +3829,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>90</v>
       </c>
@@ -3868,13 +3873,13 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3890,24 +3895,24 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>121</v>
       </c>
@@ -3954,7 +3959,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>306</v>
       </c>
@@ -4001,7 +4006,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>306</v>
       </c>
@@ -4048,7 +4053,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>306</v>
       </c>
@@ -4095,16 +4100,16 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:O1"/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4116,137 +4121,137 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="AU18" sqref="AU18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="35" max="36" width="15" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="15" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="15" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="15" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="56" max="57" width="15" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="15" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="15" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="15" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="82" max="83" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="84" max="85" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="82" max="83" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="99" max="99" width="15" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="101" max="102" width="15" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="107" max="108" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="107" max="108" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="110" max="110" width="15" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="118" max="118" width="26" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="122" max="123" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="122" max="123" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="130" max="130" width="15" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="136" max="137" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="136" max="137" width="2.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
@@ -4653,7 +4658,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>332</v>
       </c>
@@ -4673,7 +4678,7 @@
         <v>90</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>91</v>
@@ -4775,7 +4780,7 @@
         <v>245</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="AR2" s="1" t="s">
         <v>91</v>
@@ -4799,7 +4804,7 @@
         <v>96</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>243</v>
+        <v>356</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>94</v>
@@ -4862,25 +4867,25 @@
         <v>90</v>
       </c>
       <c r="BZ2" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CH2" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="CA2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CB2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CD2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CE2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CG2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CH2" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="CJ2" s="1" t="s">
         <v>249</v>
@@ -4985,9 +4990,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>256</v>
@@ -5005,7 +5010,7 @@
         <v>90</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>91</v>
@@ -5107,7 +5112,7 @@
         <v>245</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="AR3" s="1" t="s">
         <v>91</v>
@@ -5131,7 +5136,7 @@
         <v>96</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>243</v>
+        <v>356</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>94</v>
@@ -5194,7 +5199,7 @@
         <v>90</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CA3" s="1" t="s">
         <v>96</v>
@@ -5212,7 +5217,7 @@
         <v>94</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CJ3" s="1" t="s">
         <v>249</v>
@@ -5317,12 +5322,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>99</v>
@@ -5337,7 +5342,7 @@
         <v>90</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>91</v>
@@ -5439,7 +5444,7 @@
         <v>245</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="AR4" s="1" t="s">
         <v>91</v>
@@ -5463,7 +5468,7 @@
         <v>96</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>243</v>
+        <v>356</v>
       </c>
       <c r="BA4" s="1" t="s">
         <v>94</v>
@@ -5526,7 +5531,7 @@
         <v>90</v>
       </c>
       <c r="BZ4" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CA4" s="1" t="s">
         <v>96</v>
@@ -5544,7 +5549,7 @@
         <v>94</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="CJ4" s="1" t="s">
         <v>249</v>
@@ -5649,12 +5654,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>99</v>
@@ -5669,7 +5674,7 @@
         <v>90</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>91</v>
@@ -5771,7 +5776,7 @@
         <v>245</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="AR5" s="1" t="s">
         <v>91</v>
@@ -5795,7 +5800,7 @@
         <v>96</v>
       </c>
       <c r="AZ5" s="1" t="s">
-        <v>243</v>
+        <v>356</v>
       </c>
       <c r="BA5" s="1" t="s">
         <v>94</v>
@@ -5858,7 +5863,7 @@
         <v>90</v>
       </c>
       <c r="BZ5" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CA5" s="1" t="s">
         <v>96</v>
@@ -5876,7 +5881,7 @@
         <v>94</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="CJ5" s="1" t="s">
         <v>249</v>
@@ -5981,9 +5986,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>241</v>
@@ -6001,7 +6006,7 @@
         <v>90</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>91</v>
@@ -6103,7 +6108,7 @@
         <v>245</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="AR6" s="1" t="s">
         <v>91</v>
@@ -6127,7 +6132,7 @@
         <v>96</v>
       </c>
       <c r="AZ6" s="1" t="s">
-        <v>243</v>
+        <v>356</v>
       </c>
       <c r="BA6" s="1" t="s">
         <v>94</v>
@@ -6190,7 +6195,7 @@
         <v>90</v>
       </c>
       <c r="BZ6" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CA6" s="1" t="s">
         <v>96</v>
@@ -6208,7 +6213,7 @@
         <v>94</v>
       </c>
       <c r="CH6" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CJ6" s="1" t="s">
         <v>249</v>
@@ -6313,9 +6318,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>256</v>
@@ -6333,7 +6338,7 @@
         <v>90</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>91</v>
@@ -6435,7 +6440,7 @@
         <v>245</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="AR7" s="1" t="s">
         <v>91</v>
@@ -6459,7 +6464,7 @@
         <v>96</v>
       </c>
       <c r="AZ7" s="1" t="s">
-        <v>243</v>
+        <v>356</v>
       </c>
       <c r="BA7" s="1" t="s">
         <v>94</v>
@@ -6522,7 +6527,7 @@
         <v>90</v>
       </c>
       <c r="BZ7" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CA7" s="1" t="s">
         <v>96</v>
@@ -6540,7 +6545,7 @@
         <v>94</v>
       </c>
       <c r="CH7" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="CJ7" s="1" t="s">
         <v>249</v>
@@ -6645,9 +6650,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>241</v>
@@ -6665,7 +6670,7 @@
         <v>90</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>91</v>
@@ -6767,7 +6772,7 @@
         <v>245</v>
       </c>
       <c r="AQ8" s="1" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="AR8" s="1" t="s">
         <v>91</v>
@@ -6791,7 +6796,7 @@
         <v>96</v>
       </c>
       <c r="AZ8" s="1" t="s">
-        <v>243</v>
+        <v>356</v>
       </c>
       <c r="BA8" s="1" t="s">
         <v>94</v>
@@ -6854,7 +6859,7 @@
         <v>90</v>
       </c>
       <c r="BZ8" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CA8" s="1" t="s">
         <v>96</v>
@@ -6872,7 +6877,7 @@
         <v>94</v>
       </c>
       <c r="CH8" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="CJ8" s="1" t="s">
         <v>249</v>
@@ -6977,9 +6982,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>256</v>
@@ -6997,7 +7002,7 @@
         <v>90</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>91</v>
@@ -7099,7 +7104,7 @@
         <v>245</v>
       </c>
       <c r="AQ9" s="1" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="AR9" s="1" t="s">
         <v>91</v>
@@ -7123,7 +7128,7 @@
         <v>96</v>
       </c>
       <c r="AZ9" s="1" t="s">
-        <v>243</v>
+        <v>356</v>
       </c>
       <c r="BA9" s="1" t="s">
         <v>94</v>
@@ -7186,7 +7191,7 @@
         <v>90</v>
       </c>
       <c r="BZ9" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CA9" s="1" t="s">
         <v>96</v>
@@ -7204,7 +7209,7 @@
         <v>94</v>
       </c>
       <c r="CH9" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="CJ9" s="1" t="s">
         <v>249</v>
@@ -7309,11 +7314,11 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:EG1"/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7330,83 +7335,83 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="36" max="39" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="51" max="52" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="36" max="39" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="15" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="15" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="67" max="68" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="68" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="15" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="26" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>120</v>
       </c>
@@ -7657,7 +7662,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>315</v>
       </c>
@@ -7848,7 +7853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>315</v>
       </c>
@@ -8039,7 +8044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>315</v>
       </c>
@@ -8233,7 +8238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>315</v>
       </c>
@@ -8382,7 +8387,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>315</v>
       </c>
@@ -8522,7 +8527,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>315</v>
       </c>
@@ -8662,7 +8667,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>315</v>
       </c>
@@ -8808,7 +8813,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>315</v>
       </c>
@@ -8954,7 +8959,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>315</v>
       </c>
@@ -9094,7 +9099,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>315</v>
       </c>
@@ -9234,24 +9239,24 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:CE1"/>
   <phoneticPr fontId="1" type="noConversion"/>
